--- a/data/spring-cloud-shop/shop-activity-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-activity-model_structure.xlsx
@@ -921,73 +921,88 @@
     <t>bannerClickUrl</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>shareSubtitle</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>shareUrl</t>
+  </si>
+  <si>
+    <t>shareChannel</t>
+  </si>
+  <si>
+    <t>bannerStatus</t>
+  </si>
+  <si>
+    <t>bannerUrl</t>
+  </si>
+  <si>
+    <t>bannerType</t>
+  </si>
+  <si>
     <t>shareIcon</t>
   </si>
   <si>
-    <t>shareUrl</t>
-  </si>
-  <si>
-    <t>bannerStatus</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>bannerType</t>
-  </si>
-  <si>
     <t>shareTitle</t>
   </si>
   <si>
-    <t>shareChannel</t>
-  </si>
-  <si>
-    <t>bannerUrl</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>shareSubtitle</t>
+    <t>unitDesc</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>valueDesc</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>endAt</t>
+  </si>
+  <si>
+    <t>startAt</t>
+  </si>
+  <si>
+    <t>reason</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>startAt</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>endAt</t>
-  </si>
-  <si>
-    <t>valueDesc</t>
-  </si>
-  <si>
-    <t>unitDesc</t>
+    <t>discountAmount</t>
   </si>
   <si>
     <t>endTime</t>
   </si>
   <si>
-    <t>discountAmount</t>
+    <t>templateId</t>
+  </si>
+  <si>
+    <t>beginTime</t>
+  </si>
+  <si>
+    <t>orderAmount</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>templateType</t>
   </si>
   <si>
     <t>discountStrength</t>
@@ -996,78 +1011,63 @@
     <t>phone</t>
   </si>
   <si>
-    <t>templateType</t>
-  </si>
-  <si>
-    <t>orderAmount</t>
-  </si>
-  <si>
-    <t>templateName</t>
-  </si>
-  <si>
-    <t>beginTime</t>
-  </si>
-  <si>
-    <t>templateId</t>
+    <t>activityId</t>
   </si>
   <si>
     <t>activityName</t>
   </si>
   <si>
+    <t>ruleName</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
-    <t>ruleName</t>
-  </si>
-  <si>
-    <t>activityId</t>
+    <t>couponName</t>
   </si>
   <si>
     <t>discountType</t>
   </si>
   <si>
-    <t>couponName</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>master</t>
   </si>
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>groupTime</t>
   </si>
   <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>recordId</t>
-  </si>
-  <si>
     <t>serverStatus</t>
   </si>
   <si>
     <t>activityImg</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
+  </si>
+  <si>
+    <t>COUPON</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
-    <t>DISCOUNT</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>COUPON</t>
-  </si>
-  <si>
     <t>activityType</t>
   </si>
   <si>
@@ -1086,12 +1086,12 @@
     <t>timeRange</t>
   </si>
   <si>
+    <t>BANNER_SHARE_CHANNEL</t>
+  </si>
+  <si>
     <t>APP_BANNER_PREFIX</t>
   </si>
   <si>
-    <t>BANNER_SHARE_CHANNEL</t>
-  </si>
-  <si>
     <t>COUPON_PUBLISH_FAILURE_PREFIX</t>
   </si>
   <si>
@@ -1113,55 +1113,55 @@
     <t>templateTypeName</t>
   </si>
   <si>
+    <t>openGroupTime</t>
+  </si>
+  <si>
     <t>createTime</t>
   </si>
   <si>
+    <t>openFightStatus</t>
+  </si>
+  <si>
     <t>deleteStatus</t>
   </si>
   <si>
-    <t>openGroupTime</t>
-  </si>
-  <si>
-    <t>openFightStatus</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
     <t>groupId</t>
   </si>
   <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
     <t>goodsAmount</t>
   </si>
   <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>EXPIRE</t>
   </si>
   <si>
     <t>UNUSED</t>
   </si>
   <si>
-    <t>EXPIRE</t>
-  </si>
-  <si>
-    <t>USED</t>
-  </si>
-  <si>
     <t>channelType</t>
   </si>
   <si>
     <t>channelName</t>
   </si>
   <si>
+    <t>ASSEMBLE</t>
+  </si>
+  <si>
+    <t>EXCHANGE</t>
+  </si>
+  <si>
     <t>SECKILL</t>
-  </si>
-  <si>
-    <t>ASSEMBLE</t>
-  </si>
-  <si>
-    <t>EXCHANGE</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -20915,7 +20915,7 @@
         <v>146</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -20923,7 +20923,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>146</v>
@@ -20937,13 +20937,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -20951,13 +20951,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -20971,7 +20971,7 @@
         <v>146</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -20985,7 +20985,7 @@
         <v>146</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -20999,7 +20999,7 @@
         <v>146</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -21069,7 +21069,7 @@
         <v>146</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -21083,7 +21083,7 @@
         <v>146</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -21097,7 +21097,7 @@
         <v>146</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -21111,7 +21111,7 @@
         <v>146</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -21125,7 +21125,7 @@
         <v>146</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -21139,7 +21139,7 @@
         <v>146</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -21189,13 +21189,13 @@
         <v>63</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>303</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -21203,7 +21203,7 @@
         <v>63</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>146</v>
@@ -21217,13 +21217,13 @@
         <v>63</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -21231,13 +21231,13 @@
         <v>63</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -21245,13 +21245,13 @@
         <v>63</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -21259,13 +21259,13 @@
         <v>63</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
@@ -21273,7 +21273,7 @@
         <v>63</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>146</v>
@@ -21287,13 +21287,13 @@
         <v>63</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -21301,13 +21301,13 @@
         <v>63</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -21321,7 +21321,7 @@
         <v>146</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -21335,7 +21335,7 @@
         <v>146</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -21349,7 +21349,7 @@
         <v>146</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -21357,13 +21357,13 @@
         <v>91</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -21371,13 +21371,13 @@
         <v>91</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -21385,13 +21385,13 @@
         <v>91</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -21399,13 +21399,13 @@
         <v>91</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -21413,13 +21413,13 @@
         <v>91</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>303</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -21427,13 +21427,13 @@
         <v>91</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -21441,13 +21441,13 @@
         <v>91</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
@@ -21461,7 +21461,7 @@
         <v>146</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -21469,13 +21469,13 @@
         <v>101</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
@@ -21483,13 +21483,13 @@
         <v>101</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
@@ -21497,7 +21497,7 @@
         <v>101</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>146</v>
@@ -21511,13 +21511,13 @@
         <v>101</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>303</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -21525,7 +21525,7 @@
         <v>101</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>146</v>
@@ -21539,13 +21539,13 @@
         <v>110</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -21553,13 +21553,13 @@
         <v>110</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50">
@@ -21567,13 +21567,13 @@
         <v>110</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
@@ -21581,7 +21581,7 @@
         <v>110</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>146</v>
@@ -21595,13 +21595,13 @@
         <v>110</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -21609,13 +21609,13 @@
         <v>110</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -21623,13 +21623,13 @@
         <v>112</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -21637,13 +21637,13 @@
         <v>112</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>303</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -21657,7 +21657,7 @@
         <v>146</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
@@ -21665,13 +21665,13 @@
         <v>112</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
@@ -21679,13 +21679,13 @@
         <v>112</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59">
@@ -21693,13 +21693,13 @@
         <v>112</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -21713,7 +21713,7 @@
         <v>146</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -21721,13 +21721,13 @@
         <v>112</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -21735,13 +21735,13 @@
         <v>112</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
@@ -21749,13 +21749,13 @@
         <v>125</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
@@ -21763,13 +21763,13 @@
         <v>125</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -21777,13 +21777,13 @@
         <v>125</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -21791,13 +21791,13 @@
         <v>125</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>303</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
@@ -21805,13 +21805,13 @@
         <v>125</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>21</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68">
@@ -21819,13 +21819,13 @@
         <v>125</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -21833,13 +21833,13 @@
         <v>125</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
@@ -21853,7 +21853,7 @@
         <v>146</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -21861,13 +21861,13 @@
         <v>133</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -21875,13 +21875,13 @@
         <v>133</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -21892,10 +21892,10 @@
         <v>344</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
@@ -21906,10 +21906,10 @@
         <v>345</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
@@ -21923,7 +21923,7 @@
         <v>146</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -21934,10 +21934,10 @@
         <v>347</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>133</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -21945,13 +21945,13 @@
         <v>151</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -21959,13 +21959,13 @@
         <v>151</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -21973,13 +21973,13 @@
         <v>151</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
@@ -21987,13 +21987,13 @@
         <v>151</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
@@ -22001,13 +22001,13 @@
         <v>151</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -22015,7 +22015,7 @@
         <v>151</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>146</v>
@@ -22029,13 +22029,13 @@
         <v>151</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>89</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84">
@@ -22043,7 +22043,7 @@
         <v>155</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>146</v>
@@ -22071,7 +22071,7 @@
         <v>155</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>146</v>
@@ -22085,13 +22085,13 @@
         <v>155</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -22099,13 +22099,13 @@
         <v>155</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
@@ -22113,13 +22113,13 @@
         <v>162</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90">
@@ -22127,13 +22127,13 @@
         <v>162</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -22141,13 +22141,13 @@
         <v>162</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -22169,13 +22169,13 @@
         <v>162</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>303</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
@@ -22183,7 +22183,7 @@
         <v>162</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>146</v>
@@ -22197,7 +22197,7 @@
         <v>168</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>146</v>
@@ -22211,13 +22211,13 @@
         <v>168</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>303</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
@@ -22225,13 +22225,13 @@
         <v>168</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>37</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98">
@@ -22239,13 +22239,13 @@
         <v>44</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99">
@@ -22253,13 +22253,13 @@
         <v>44</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100">
@@ -22267,13 +22267,13 @@
         <v>44</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -22281,13 +22281,13 @@
         <v>44</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -22295,7 +22295,7 @@
         <v>44</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>146</v>
@@ -22309,13 +22309,13 @@
         <v>44</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104">
@@ -22323,7 +22323,7 @@
         <v>44</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>146</v>
@@ -22337,7 +22337,7 @@
         <v>44</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>146</v>
@@ -22351,7 +22351,7 @@
         <v>44</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>146</v>
@@ -22365,13 +22365,13 @@
         <v>44</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>303</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108">
@@ -22379,7 +22379,7 @@
         <v>44</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>146</v>
@@ -22435,7 +22435,7 @@
         <v>192</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>146</v>
@@ -22449,7 +22449,7 @@
         <v>192</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>146</v>
@@ -22469,7 +22469,7 @@
         <v>146</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -22477,7 +22477,7 @@
         <v>192</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>146</v>
@@ -22491,7 +22491,7 @@
         <v>192</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>146</v>
@@ -22505,13 +22505,13 @@
         <v>192</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118">
@@ -22519,13 +22519,13 @@
         <v>192</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119">
@@ -22533,7 +22533,7 @@
         <v>192</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>357</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>146</v>
@@ -22547,13 +22547,13 @@
         <v>192</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121">
@@ -22561,13 +22561,13 @@
         <v>192</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -22575,13 +22575,13 @@
         <v>192</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
@@ -22589,7 +22589,7 @@
         <v>192</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>146</v>
@@ -22603,7 +22603,7 @@
         <v>192</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>146</v>
@@ -22617,7 +22617,7 @@
         <v>192</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>146</v>
@@ -22631,13 +22631,13 @@
         <v>198</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127">
@@ -22645,13 +22645,13 @@
         <v>198</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -22659,13 +22659,13 @@
         <v>198</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129">
@@ -22673,13 +22673,13 @@
         <v>198</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -22687,7 +22687,7 @@
         <v>198</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>146</v>
@@ -22701,13 +22701,13 @@
         <v>198</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
@@ -22715,13 +22715,13 @@
         <v>198</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133">
@@ -22729,13 +22729,13 @@
         <v>198</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>67</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134">
@@ -22743,13 +22743,13 @@
         <v>159</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -22757,13 +22757,13 @@
         <v>159</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
@@ -22771,13 +22771,13 @@
         <v>159</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -22785,13 +22785,13 @@
         <v>159</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>21</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138">
@@ -22799,13 +22799,13 @@
         <v>159</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139">
@@ -22813,13 +22813,13 @@
         <v>159</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140">
@@ -22827,13 +22827,13 @@
         <v>208</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141">
@@ -22841,7 +22841,7 @@
         <v>208</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>146</v>
@@ -22855,7 +22855,7 @@
         <v>208</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>146</v>
@@ -22869,13 +22869,13 @@
         <v>208</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>303</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144">
@@ -22883,13 +22883,13 @@
         <v>208</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145">
@@ -22897,13 +22897,13 @@
         <v>208</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146">
@@ -22911,13 +22911,13 @@
         <v>208</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147">
@@ -22925,13 +22925,13 @@
         <v>208</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
@@ -22939,7 +22939,7 @@
         <v>208</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>146</v>
@@ -22953,13 +22953,13 @@
         <v>214</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>303</v>
+        <v>73</v>
       </c>
     </row>
     <row r="150">
@@ -22967,13 +22967,13 @@
         <v>214</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
@@ -22981,13 +22981,13 @@
         <v>214</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152">
@@ -22995,13 +22995,13 @@
         <v>214</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>121</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153">
@@ -23009,13 +23009,13 @@
         <v>214</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154">
@@ -23023,13 +23023,13 @@
         <v>214</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
@@ -23037,7 +23037,7 @@
         <v>214</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>146</v>
@@ -23051,13 +23051,13 @@
         <v>214</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157">
@@ -23065,13 +23065,13 @@
         <v>214</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158">
@@ -23079,13 +23079,13 @@
         <v>214</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159">
@@ -23093,13 +23093,13 @@
         <v>214</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160">
@@ -23107,7 +23107,7 @@
         <v>214</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>146</v>
@@ -23121,13 +23121,13 @@
         <v>218</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>303</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162">
@@ -23149,13 +23149,13 @@
         <v>218</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
@@ -23163,7 +23163,7 @@
         <v>218</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>146</v>
@@ -23177,13 +23177,13 @@
         <v>218</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>67</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166">
@@ -23191,7 +23191,7 @@
         <v>218</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>146</v>
@@ -23205,13 +23205,13 @@
         <v>218</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168">
@@ -23219,13 +23219,13 @@
         <v>222</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169">
@@ -23233,7 +23233,7 @@
         <v>222</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>146</v>
@@ -23247,13 +23247,13 @@
         <v>222</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171">
@@ -23261,13 +23261,13 @@
         <v>224</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172">
@@ -23275,13 +23275,13 @@
         <v>224</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
@@ -23289,13 +23289,13 @@
         <v>224</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174">
@@ -23303,7 +23303,7 @@
         <v>224</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>146</v>
@@ -23317,7 +23317,7 @@
         <v>224</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>146</v>
@@ -23331,13 +23331,13 @@
         <v>224</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177">
@@ -23345,13 +23345,13 @@
         <v>224</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>108</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178">
@@ -23359,7 +23359,7 @@
         <v>224</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>146</v>
@@ -23373,13 +23373,13 @@
         <v>224</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="180">
@@ -23387,13 +23387,13 @@
         <v>224</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
@@ -23401,7 +23401,7 @@
         <v>224</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>146</v>
@@ -23415,13 +23415,13 @@
         <v>224</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
@@ -23429,7 +23429,7 @@
         <v>224</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>146</v>
@@ -23443,13 +23443,13 @@
         <v>235</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
@@ -23457,13 +23457,13 @@
         <v>235</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186">
@@ -23471,13 +23471,13 @@
         <v>235</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187">
@@ -23485,13 +23485,13 @@
         <v>239</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188">
@@ -23499,13 +23499,13 @@
         <v>239</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
@@ -23513,13 +23513,13 @@
         <v>239</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190">
@@ -23527,13 +23527,13 @@
         <v>239</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="191">
@@ -23555,13 +23555,13 @@
         <v>239</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193">
@@ -23569,13 +23569,13 @@
         <v>244</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>37</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194">
@@ -23583,13 +23583,13 @@
         <v>244</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
@@ -23597,7 +23597,7 @@
         <v>244</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>146</v>
@@ -23617,7 +23617,7 @@
         <v>146</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197">
@@ -23631,7 +23631,7 @@
         <v>146</v>
       </c>
       <c r="D197" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
@@ -23639,7 +23639,7 @@
         <v>246</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>146</v>
@@ -23653,13 +23653,13 @@
         <v>246</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D199" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200">
@@ -23667,13 +23667,13 @@
         <v>246</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
@@ -23681,13 +23681,13 @@
         <v>246</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D201" t="s" s="0">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202">
@@ -23695,13 +23695,13 @@
         <v>246</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>303</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203">
@@ -23709,13 +23709,13 @@
         <v>246</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>89</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204">
@@ -23723,13 +23723,13 @@
         <v>246</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D204" t="s" s="0">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="205">
@@ -23737,13 +23737,13 @@
         <v>248</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
@@ -23751,13 +23751,13 @@
         <v>248</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207">
@@ -23765,7 +23765,7 @@
         <v>248</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>146</v>
@@ -23779,13 +23779,13 @@
         <v>248</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
@@ -23793,13 +23793,13 @@
         <v>248</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="210">
@@ -23807,7 +23807,7 @@
         <v>248</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>146</v>
@@ -23821,13 +23821,13 @@
         <v>248</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212">
@@ -23835,13 +23835,13 @@
         <v>248</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
@@ -23849,13 +23849,13 @@
         <v>250</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214">
@@ -23863,13 +23863,13 @@
         <v>250</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
@@ -23891,13 +23891,13 @@
         <v>250</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217">
@@ -23905,13 +23905,13 @@
         <v>250</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="218">
@@ -23919,13 +23919,13 @@
         <v>250</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
@@ -23933,7 +23933,7 @@
         <v>250</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>146</v>
@@ -23947,7 +23947,7 @@
         <v>250</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>146</v>
@@ -23961,7 +23961,7 @@
         <v>250</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>146</v>
@@ -23975,13 +23975,13 @@
         <v>250</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>303</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223">
@@ -23989,7 +23989,7 @@
         <v>250</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>146</v>
@@ -24003,13 +24003,13 @@
         <v>250</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>108</v>
+        <v>300</v>
       </c>
     </row>
     <row r="225">
@@ -24017,13 +24017,13 @@
         <v>258</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226">
@@ -24031,7 +24031,7 @@
         <v>258</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>146</v>
@@ -24045,7 +24045,7 @@
         <v>258</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>6</v>
@@ -24059,7 +24059,7 @@
         <v>258</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>6</v>
@@ -24073,7 +24073,7 @@
         <v>258</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>146</v>
@@ -24087,13 +24087,13 @@
         <v>258</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>258</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
@@ -24107,7 +24107,7 @@
         <v>146</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
@@ -24115,13 +24115,13 @@
         <v>261</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>303</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233">
@@ -24129,7 +24129,7 @@
         <v>261</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>146</v>
@@ -24143,13 +24143,13 @@
         <v>261</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="235">
@@ -24157,13 +24157,13 @@
         <v>261</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="236">
@@ -24171,13 +24171,13 @@
         <v>263</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D236" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237">
@@ -24185,7 +24185,7 @@
         <v>263</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>146</v>
@@ -24199,13 +24199,13 @@
         <v>263</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>89</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239">
@@ -24213,13 +24213,13 @@
         <v>263</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D239" t="s" s="0">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240">
@@ -24227,13 +24227,13 @@
         <v>263</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
@@ -24241,13 +24241,13 @@
         <v>265</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242">
@@ -24255,7 +24255,7 @@
         <v>265</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>146</v>
@@ -24269,13 +24269,13 @@
         <v>265</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244">
@@ -24283,13 +24283,13 @@
         <v>265</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
@@ -24297,7 +24297,7 @@
         <v>269</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>146</v>
@@ -24311,13 +24311,13 @@
         <v>269</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247">
@@ -24325,7 +24325,7 @@
         <v>269</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>146</v>
@@ -24339,13 +24339,13 @@
         <v>269</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249">
@@ -24353,13 +24353,13 @@
         <v>269</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
@@ -24367,7 +24367,7 @@
         <v>269</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>146</v>
@@ -24381,7 +24381,7 @@
         <v>269</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>146</v>
@@ -24395,7 +24395,7 @@
         <v>269</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>146</v>
@@ -24409,13 +24409,13 @@
         <v>269</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
@@ -24423,13 +24423,13 @@
         <v>269</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255">
@@ -24437,13 +24437,13 @@
         <v>269</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
@@ -24451,13 +24451,13 @@
         <v>271</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="257">
@@ -24479,13 +24479,13 @@
         <v>271</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D258" t="s" s="0">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="259">
@@ -24493,7 +24493,7 @@
         <v>271</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>146</v>
@@ -24507,13 +24507,13 @@
         <v>271</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D260" t="s" s="0">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
@@ -24521,13 +24521,13 @@
         <v>273</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D261" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
@@ -24535,7 +24535,7 @@
         <v>273</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>146</v>
@@ -24549,13 +24549,13 @@
         <v>273</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D263" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="264">
@@ -24563,13 +24563,13 @@
         <v>279</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>89</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265">
@@ -24577,13 +24577,13 @@
         <v>279</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>281</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266">
@@ -24591,13 +24591,13 @@
         <v>279</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D266" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267">
@@ -24633,7 +24633,7 @@
         <v>279</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>146</v>
@@ -24647,13 +24647,13 @@
         <v>282</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D270" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="271">
@@ -24661,7 +24661,7 @@
         <v>282</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>146</v>
@@ -24675,13 +24675,13 @@
         <v>282</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D272" t="s" s="0">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="273">
@@ -24689,13 +24689,13 @@
         <v>282</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D273" t="s" s="0">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274">
@@ -24703,13 +24703,13 @@
         <v>282</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D274" t="s" s="0">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="275">
@@ -24717,13 +24717,13 @@
         <v>282</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D275" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -24745,13 +24745,13 @@
         <v>284</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D277" t="s" s="0">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278">
@@ -24759,13 +24759,13 @@
         <v>284</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D278" t="s" s="0">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279">
@@ -24773,13 +24773,13 @@
         <v>284</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D279" t="s" s="0">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="280">
@@ -24787,7 +24787,7 @@
         <v>284</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>146</v>
@@ -24801,13 +24801,13 @@
         <v>284</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D281" t="s" s="0">
-        <v>303</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282">
@@ -24815,7 +24815,7 @@
         <v>286</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>146</v>
@@ -24829,13 +24829,13 @@
         <v>286</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D283" t="s" s="0">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="284">
@@ -24843,7 +24843,7 @@
         <v>286</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>146</v>
@@ -24857,13 +24857,13 @@
         <v>288</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D285" t="s" s="0">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="286">
@@ -24871,13 +24871,13 @@
         <v>288</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D286" t="s" s="0">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
@@ -24885,13 +24885,13 @@
         <v>288</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D287" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288">
@@ -24899,13 +24899,13 @@
         <v>288</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D288" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="289">
@@ -24913,13 +24913,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D289" t="s" s="0">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="290">
@@ -24927,13 +24927,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D290" t="s" s="0">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="291">
@@ -24941,13 +24941,13 @@
         <v>288</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D291" t="s" s="0">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292">
@@ -24955,13 +24955,13 @@
         <v>288</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D292" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="293">
@@ -24969,7 +24969,7 @@
         <v>288</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>146</v>
@@ -24983,13 +24983,13 @@
         <v>290</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D294" t="s" s="0">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="295">
@@ -24997,13 +24997,13 @@
         <v>290</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D295" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="296">
@@ -25011,13 +25011,13 @@
         <v>290</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D296" t="s" s="0">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
@@ -25025,13 +25025,13 @@
         <v>290</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D297" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="298">
@@ -25039,13 +25039,13 @@
         <v>290</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D298" t="s" s="0">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
@@ -25053,13 +25053,13 @@
         <v>290</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D299" t="s" s="0">
-        <v>89</v>
+        <v>300</v>
       </c>
     </row>
     <row r="300">
@@ -25067,7 +25067,7 @@
         <v>290</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>146</v>
@@ -25081,13 +25081,13 @@
         <v>290</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C301" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D301" t="s" s="0">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302">
@@ -25095,13 +25095,13 @@
         <v>290</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D302" t="s" s="0">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303">
@@ -25109,13 +25109,13 @@
         <v>290</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D303" t="s" s="0">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="304">
@@ -25123,13 +25123,13 @@
         <v>290</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>146</v>
       </c>
       <c r="D304" t="s" s="0">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
